--- a/data/hsls/documentation/filter_varlist.xlsx
+++ b/data/hsls/documentation/filter_varlist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="271">
   <si>
     <t>Variable</t>
   </si>
@@ -601,9 +601,6 @@
   </si>
   <si>
     <t>plan test is the "preACT" https://www.powerscore.com/act/help/understanding-the-plan-test</t>
-  </si>
-  <si>
-    <t>X1SEX</t>
   </si>
   <si>
     <t>X2RACE</t>
@@ -794,6 +791,48 @@
   </si>
   <si>
     <t>no missing obs for our sample; The math IRT-estimated number correct is a criterion-referenced measure of achievement at the time of the Base Year assessment. The criterion is the set of skills defined by both the HSLS:09 Base Year and First Follow-up framework and represented by the 118 items used to score the HSLS:09 First Follow-up mathematics assessment. The estimated number correct for math is an estimate of the number of items students would have answered correctly had they responded to all 118 items in the item pool.</t>
+  </si>
+  <si>
+    <t>X2SEX</t>
+  </si>
+  <si>
+    <t>WEIGHT VARS</t>
+  </si>
+  <si>
+    <t>W3HSTRANS</t>
+  </si>
+  <si>
+    <t>W3 Student High School Transcript Weight</t>
+  </si>
+  <si>
+    <t>IDs and weights</t>
+  </si>
+  <si>
+    <t>W3STUDENTTR</t>
+  </si>
+  <si>
+    <t>W3 High school transcript and 2013 Update weight</t>
+  </si>
+  <si>
+    <t>W3W1STUTR</t>
+  </si>
+  <si>
+    <t>W3 High school transcript, base year and 2013 Update weight</t>
+  </si>
+  <si>
+    <t>W3W1W2STUTR</t>
+  </si>
+  <si>
+    <t>W3 High school transcript, base year, first follow-up, and 2013 Update weight</t>
+  </si>
+  <si>
+    <t>W3W2STUTR</t>
+  </si>
+  <si>
+    <t>W3 High school transcript, first follow-up, and 2013 Update weight</t>
+  </si>
+  <si>
+    <t>Student weight used in analysis of data from all high school transcript responding students. See section 6.4.4.1 of the HSLS:09 Base-Year to Second Follow-Up Data Documentation (NCES 2018-140). W3HSTRANS replicates are available as W3HSTRANS001-W3HSTRANS200 in the supplemental replicate weights file psstudent_brr_ruf.dat</t>
   </si>
 </sst>
 </file>
@@ -822,12 +861,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -842,7 +893,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -854,12 +905,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66FF33"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1134,11 +1192,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1176,7 +1234,7 @@
         <v>170</v>
       </c>
       <c r="I1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -1363,13 +1421,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H22" t="s">
         <v>171</v>
@@ -1383,7 +1441,7 @@
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>194</v>
+        <v>257</v>
       </c>
       <c r="H23" t="s">
         <v>171</v>
@@ -1394,13 +1452,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I24" t="s">
         <v>171</v>
@@ -1408,13 +1466,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25" t="s">
         <v>197</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>198</v>
-      </c>
-      <c r="F25" t="s">
-        <v>199</v>
       </c>
       <c r="H25" t="s">
         <v>171</v>
@@ -1422,44 +1480,44 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D26" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26" t="s">
         <v>200</v>
       </c>
-      <c r="E26" t="s">
-        <v>201</v>
-      </c>
       <c r="F26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D27" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" t="s">
         <v>202</v>
       </c>
-      <c r="E27" t="s">
-        <v>203</v>
-      </c>
       <c r="F27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E28" t="s">
         <v>204</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
+        <v>198</v>
+      </c>
+      <c r="G28" t="s">
         <v>205</v>
-      </c>
-      <c r="F28" t="s">
-        <v>199</v>
-      </c>
-      <c r="G28" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
@@ -1467,10 +1525,10 @@
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H30" t="s">
         <v>171</v>
@@ -1481,22 +1539,22 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C31" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D32" t="s">
+        <v>211</v>
+      </c>
+      <c r="E32" t="s">
         <v>212</v>
       </c>
-      <c r="E32" t="s">
-        <v>213</v>
-      </c>
       <c r="F32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
@@ -1504,7 +1562,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G34" s="2"/>
       <c r="I34" t="s">
@@ -1513,49 +1571,49 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D35" t="s">
+        <v>217</v>
+      </c>
+      <c r="E35" t="s">
         <v>218</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>219</v>
-      </c>
-      <c r="F35" t="s">
-        <v>220</v>
       </c>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D36" t="s">
+        <v>220</v>
+      </c>
+      <c r="E36" t="s">
         <v>221</v>
       </c>
-      <c r="E36" t="s">
-        <v>222</v>
-      </c>
       <c r="F36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D37" t="s">
+        <v>222</v>
+      </c>
+      <c r="E37" t="s">
         <v>223</v>
       </c>
-      <c r="E37" t="s">
-        <v>224</v>
-      </c>
       <c r="F37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D38" t="s">
+        <v>224</v>
+      </c>
+      <c r="E38" t="s">
         <v>225</v>
       </c>
-      <c r="E38" t="s">
-        <v>226</v>
-      </c>
       <c r="F38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G38" s="2"/>
     </row>
@@ -1566,7 +1624,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -1626,17 +1684,17 @@
         <v>27</v>
       </c>
       <c r="I45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I49" t="s">
         <v>171</v>
@@ -1644,26 +1702,29 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.45">
       <c r="D50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.45">
       <c r="D51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.45">
       <c r="D53" t="s">
+        <v>230</v>
+      </c>
+      <c r="E53" t="s">
         <v>231</v>
       </c>
-      <c r="E53" t="s">
-        <v>232</v>
-      </c>
       <c r="F53" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G53" t="s">
-        <v>251</v>
+        <v>250</v>
+      </c>
+      <c r="H53" t="s">
+        <v>171</v>
       </c>
       <c r="I53" t="s">
         <v>171</v>
@@ -1671,16 +1732,19 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.45">
       <c r="D54" t="s">
+        <v>236</v>
+      </c>
+      <c r="E54" t="s">
         <v>237</v>
       </c>
-      <c r="E54" t="s">
-        <v>238</v>
-      </c>
       <c r="F54" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G54" t="s">
-        <v>252</v>
+        <v>251</v>
+      </c>
+      <c r="H54" t="s">
+        <v>171</v>
       </c>
       <c r="I54" t="s">
         <v>171</v>
@@ -1688,16 +1752,19 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.45">
       <c r="D55" t="s">
+        <v>238</v>
+      </c>
+      <c r="E55" t="s">
         <v>239</v>
       </c>
-      <c r="E55" t="s">
-        <v>240</v>
-      </c>
       <c r="F55" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G55" t="s">
-        <v>253</v>
+        <v>252</v>
+      </c>
+      <c r="H55" t="s">
+        <v>171</v>
       </c>
       <c r="I55" t="s">
         <v>171</v>
@@ -1705,16 +1772,19 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.45">
       <c r="D56" t="s">
+        <v>240</v>
+      </c>
+      <c r="E56" t="s">
         <v>241</v>
       </c>
-      <c r="E56" t="s">
-        <v>242</v>
-      </c>
       <c r="F56" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G56" t="s">
-        <v>254</v>
+        <v>253</v>
+      </c>
+      <c r="H56" t="s">
+        <v>171</v>
       </c>
       <c r="I56" t="s">
         <v>171</v>
@@ -1722,16 +1792,19 @@
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.45">
       <c r="D58" t="s">
+        <v>232</v>
+      </c>
+      <c r="E58" t="s">
         <v>233</v>
       </c>
-      <c r="E58" t="s">
-        <v>234</v>
-      </c>
       <c r="F58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G58" t="s">
-        <v>255</v>
+        <v>254</v>
+      </c>
+      <c r="H58" t="s">
+        <v>171</v>
       </c>
       <c r="I58" t="s">
         <v>171</v>
@@ -1739,16 +1812,19 @@
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.45">
       <c r="D59" t="s">
+        <v>242</v>
+      </c>
+      <c r="E59" t="s">
         <v>243</v>
       </c>
-      <c r="E59" t="s">
-        <v>244</v>
-      </c>
       <c r="F59" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G59" t="s">
-        <v>256</v>
+        <v>255</v>
+      </c>
+      <c r="H59" t="s">
+        <v>171</v>
       </c>
       <c r="I59" t="s">
         <v>171</v>
@@ -1756,16 +1832,19 @@
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.45">
       <c r="D60" t="s">
+        <v>246</v>
+      </c>
+      <c r="E60" t="s">
         <v>247</v>
       </c>
-      <c r="E60" t="s">
-        <v>248</v>
-      </c>
       <c r="F60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G60" t="s">
-        <v>253</v>
+        <v>252</v>
+      </c>
+      <c r="H60" t="s">
+        <v>171</v>
       </c>
       <c r="I60" t="s">
         <v>171</v>
@@ -1773,16 +1852,19 @@
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.45">
       <c r="D61" t="s">
+        <v>248</v>
+      </c>
+      <c r="E61" t="s">
         <v>249</v>
       </c>
-      <c r="E61" t="s">
-        <v>250</v>
-      </c>
       <c r="F61" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G61" t="s">
-        <v>255</v>
+        <v>254</v>
+      </c>
+      <c r="H61" t="s">
+        <v>171</v>
       </c>
       <c r="I61" t="s">
         <v>171</v>
@@ -1790,16 +1872,19 @@
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.45">
       <c r="D63" t="s">
+        <v>244</v>
+      </c>
+      <c r="E63" t="s">
         <v>245</v>
       </c>
-      <c r="E63" t="s">
-        <v>246</v>
-      </c>
       <c r="F63" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G63" t="s">
-        <v>257</v>
+        <v>256</v>
+      </c>
+      <c r="H63" t="s">
+        <v>171</v>
       </c>
       <c r="I63" t="s">
         <v>171</v>
@@ -2879,7 +2964,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D129" t="s">
         <v>154</v>
       </c>
@@ -2896,7 +2981,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="130" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D130" t="s">
         <v>156</v>
       </c>
@@ -2913,7 +2998,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="131" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D131" t="s">
         <v>158</v>
       </c>
@@ -2930,7 +3015,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="132" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D132" t="s">
         <v>160</v>
       </c>
@@ -2945,6 +3030,67 @@
       </c>
       <c r="H132" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>258</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F135" t="s">
+        <v>261</v>
+      </c>
+      <c r="G135" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D136" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F136" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D137" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F137" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D138" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F138" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D139" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F139" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/data/hsls/documentation/filter_varlist.xlsx
+++ b/data/hsls/documentation/filter_varlist.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="288">
   <si>
     <t>Variable</t>
   </si>
@@ -833,6 +834,57 @@
   </si>
   <si>
     <t>Student weight used in analysis of data from all high school transcript responding students. See section 6.4.4.1 of the HSLS:09 Base-Year to Second Follow-Up Data Documentation (NCES 2018-140). W3HSTRANS replicates are available as W3HSTRANS001-W3HSTRANS200 in the supplemental replicate weights file psstudent_brr_ruf.dat</t>
+  </si>
+  <si>
+    <t>sat_temp</t>
+  </si>
+  <si>
+    <t>psat_temp</t>
+  </si>
+  <si>
+    <t>ap_temp</t>
+  </si>
+  <si>
+    <t>x2race</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>n_yes</t>
+  </si>
+  <si>
+    <t>n_no</t>
+  </si>
+  <si>
+    <t>&lt;fct&gt;</t>
+  </si>
+  <si>
+    <t>&lt;int&gt;</t>
+  </si>
+  <si>
+    <t>aian</t>
+  </si>
+  <si>
+    <t>asian</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>hisp</t>
+  </si>
+  <si>
+    <t>multi</t>
+  </si>
+  <si>
+    <t>nhpi</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>sum</t>
   </si>
 </sst>
 </file>
@@ -1192,11 +1244,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G117" sqref="G117"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1894,133 +1946,40 @@
       <c r="B65" t="s">
         <v>191</v>
       </c>
-      <c r="D65" t="s">
-        <v>180</v>
-      </c>
-      <c r="E65" t="s">
-        <v>181</v>
-      </c>
-      <c r="F65" t="s">
-        <v>182</v>
-      </c>
-      <c r="G65" t="s">
-        <v>30</v>
-      </c>
-      <c r="H65" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D66" t="s">
-        <v>183</v>
-      </c>
-      <c r="E66" t="s">
-        <v>184</v>
-      </c>
-      <c r="F66" t="s">
-        <v>182</v>
-      </c>
-      <c r="G66" t="s">
-        <v>30</v>
-      </c>
-      <c r="H66" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C67" t="s">
+        <v>271</v>
+      </c>
       <c r="D67" t="s">
-        <v>185</v>
-      </c>
-      <c r="E67" t="s">
-        <v>186</v>
-      </c>
-      <c r="F67" t="s">
-        <v>182</v>
-      </c>
-      <c r="G67" t="s">
-        <v>30</v>
-      </c>
-      <c r="H67" t="s">
-        <v>171</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C68" t="s">
+        <v>272</v>
+      </c>
       <c r="D68" t="s">
-        <v>187</v>
-      </c>
-      <c r="E68" t="s">
-        <v>188</v>
-      </c>
-      <c r="F68" t="s">
-        <v>182</v>
-      </c>
-      <c r="G68" t="s">
-        <v>30</v>
-      </c>
-      <c r="H68" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D70" t="s">
-        <v>35</v>
-      </c>
-      <c r="E70" t="s">
-        <v>36</v>
-      </c>
-      <c r="F70" t="s">
-        <v>37</v>
-      </c>
-      <c r="G70" t="s">
-        <v>30</v>
-      </c>
-      <c r="H70" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D71" t="s">
-        <v>38</v>
-      </c>
-      <c r="E71" t="s">
-        <v>39</v>
-      </c>
-      <c r="F71" t="s">
-        <v>37</v>
-      </c>
-      <c r="G71" t="s">
-        <v>30</v>
-      </c>
-      <c r="H71" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D72" t="s">
-        <v>40</v>
-      </c>
-      <c r="E72" t="s">
-        <v>41</v>
-      </c>
-      <c r="F72" t="s">
-        <v>37</v>
-      </c>
-      <c r="G72" t="s">
-        <v>30</v>
-      </c>
-      <c r="H72" t="s">
-        <v>171</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C69" t="s">
+        <v>273</v>
+      </c>
+      <c r="D69" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D73" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="G73" t="s">
         <v>30</v>
@@ -2031,13 +1990,13 @@
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D74" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="G74" t="s">
         <v>30</v>
@@ -2048,13 +2007,13 @@
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D75" t="s">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="E75" t="s">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="G75" t="s">
         <v>30</v>
@@ -2065,44 +2024,27 @@
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D76" t="s">
-        <v>48</v>
+        <v>187</v>
       </c>
       <c r="E76" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="G76" t="s">
         <v>30</v>
       </c>
       <c r="H76" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D77" t="s">
-        <v>50</v>
-      </c>
-      <c r="E77" t="s">
-        <v>51</v>
-      </c>
-      <c r="F77" t="s">
-        <v>37</v>
-      </c>
-      <c r="G77" t="s">
-        <v>30</v>
-      </c>
-      <c r="H77" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D78" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E78" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F78" t="s">
         <v>37</v>
@@ -2116,10 +2058,10 @@
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D79" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E79" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F79" t="s">
         <v>37</v>
@@ -2133,10 +2075,10 @@
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D80" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E80" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F80" t="s">
         <v>37</v>
@@ -2150,10 +2092,10 @@
     </row>
     <row r="81" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D81" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E81" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F81" t="s">
         <v>37</v>
@@ -2167,10 +2109,10 @@
     </row>
     <row r="82" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D82" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E82" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
         <v>37</v>
@@ -2184,10 +2126,10 @@
     </row>
     <row r="83" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D83" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E83" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F83" t="s">
         <v>37</v>
@@ -2201,10 +2143,10 @@
     </row>
     <row r="84" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D84" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E84" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F84" t="s">
         <v>37</v>
@@ -2218,10 +2160,10 @@
     </row>
     <row r="85" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D85" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E85" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F85" t="s">
         <v>37</v>
@@ -2235,10 +2177,10 @@
     </row>
     <row r="86" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D86" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E86" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F86" t="s">
         <v>37</v>
@@ -2252,10 +2194,10 @@
     </row>
     <row r="87" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D87" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E87" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F87" t="s">
         <v>37</v>
@@ -2269,10 +2211,10 @@
     </row>
     <row r="88" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D88" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E88" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F88" t="s">
         <v>37</v>
@@ -2286,10 +2228,10 @@
     </row>
     <row r="89" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D89" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E89" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F89" t="s">
         <v>37</v>
@@ -2303,10 +2245,10 @@
     </row>
     <row r="90" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D90" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E90" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F90" t="s">
         <v>37</v>
@@ -2320,10 +2262,10 @@
     </row>
     <row r="91" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D91" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E91" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F91" t="s">
         <v>37</v>
@@ -2337,10 +2279,10 @@
     </row>
     <row r="92" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D92" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E92" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F92" t="s">
         <v>37</v>
@@ -2354,10 +2296,10 @@
     </row>
     <row r="93" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D93" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E93" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F93" t="s">
         <v>37</v>
@@ -2371,10 +2313,10 @@
     </row>
     <row r="94" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D94" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E94" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F94" t="s">
         <v>37</v>
@@ -2388,10 +2330,10 @@
     </row>
     <row r="95" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D95" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E95" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F95" t="s">
         <v>37</v>
@@ -2405,10 +2347,10 @@
     </row>
     <row r="96" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D96" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E96" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F96" t="s">
         <v>37</v>
@@ -2422,10 +2364,10 @@
     </row>
     <row r="97" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D97" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E97" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F97" t="s">
         <v>37</v>
@@ -2439,10 +2381,10 @@
     </row>
     <row r="98" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D98" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E98" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F98" t="s">
         <v>37</v>
@@ -2456,10 +2398,10 @@
     </row>
     <row r="99" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D99" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E99" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F99" t="s">
         <v>37</v>
@@ -2473,10 +2415,10 @@
     </row>
     <row r="100" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D100" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E100" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F100" t="s">
         <v>37</v>
@@ -2490,10 +2432,10 @@
     </row>
     <row r="101" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D101" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E101" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F101" t="s">
         <v>37</v>
@@ -2507,10 +2449,10 @@
     </row>
     <row r="102" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D102" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E102" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F102" t="s">
         <v>37</v>
@@ -2524,10 +2466,10 @@
     </row>
     <row r="103" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D103" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E103" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F103" t="s">
         <v>37</v>
@@ -2541,10 +2483,10 @@
     </row>
     <row r="104" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D104" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E104" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F104" t="s">
         <v>37</v>
@@ -2558,10 +2500,10 @@
     </row>
     <row r="105" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D105" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E105" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F105" t="s">
         <v>37</v>
@@ -2575,10 +2517,10 @@
     </row>
     <row r="106" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D106" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E106" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F106" t="s">
         <v>37</v>
@@ -2592,10 +2534,10 @@
     </row>
     <row r="107" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D107" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E107" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F107" t="s">
         <v>37</v>
@@ -2609,10 +2551,10 @@
     </row>
     <row r="108" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D108" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E108" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F108" t="s">
         <v>37</v>
@@ -2626,10 +2568,10 @@
     </row>
     <row r="109" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D109" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="E109" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F109" t="s">
         <v>37</v>
@@ -2643,10 +2585,10 @@
     </row>
     <row r="110" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D110" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E110" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F110" t="s">
         <v>37</v>
@@ -2660,10 +2602,10 @@
     </row>
     <row r="111" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D111" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E111" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F111" t="s">
         <v>37</v>
@@ -2677,10 +2619,10 @@
     </row>
     <row r="112" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D112" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="E112" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F112" t="s">
         <v>37</v>
@@ -2694,10 +2636,10 @@
     </row>
     <row r="113" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D113" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E113" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F113" t="s">
         <v>37</v>
@@ -2711,10 +2653,10 @@
     </row>
     <row r="114" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D114" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E114" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F114" t="s">
         <v>37</v>
@@ -2728,10 +2670,10 @@
     </row>
     <row r="115" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D115" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E115" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F115" t="s">
         <v>37</v>
@@ -2745,10 +2687,10 @@
     </row>
     <row r="116" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D116" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E116" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F116" t="s">
         <v>37</v>
@@ -2762,10 +2704,10 @@
     </row>
     <row r="117" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D117" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="E117" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F117" t="s">
         <v>37</v>
@@ -2779,10 +2721,10 @@
     </row>
     <row r="118" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D118" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E118" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F118" t="s">
         <v>37</v>
@@ -2796,10 +2738,10 @@
     </row>
     <row r="119" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D119" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="F119" t="s">
         <v>37</v>
@@ -2813,10 +2755,10 @@
     </row>
     <row r="120" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D120" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E120" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="F120" t="s">
         <v>37</v>
@@ -2830,10 +2772,10 @@
     </row>
     <row r="121" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D121" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E121" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F121" t="s">
         <v>37</v>
@@ -2847,10 +2789,10 @@
     </row>
     <row r="122" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D122" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="E122" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="F122" t="s">
         <v>37</v>
@@ -2864,10 +2806,10 @@
     </row>
     <row r="123" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D123" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="E123" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="F123" t="s">
         <v>37</v>
@@ -2881,10 +2823,10 @@
     </row>
     <row r="124" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D124" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E124" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="F124" t="s">
         <v>37</v>
@@ -2898,10 +2840,10 @@
     </row>
     <row r="125" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D125" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E125" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="F125" t="s">
         <v>37</v>
@@ -2915,10 +2857,10 @@
     </row>
     <row r="126" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D126" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E126" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="F126" t="s">
         <v>37</v>
@@ -2932,10 +2874,10 @@
     </row>
     <row r="127" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D127" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E127" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F127" t="s">
         <v>37</v>
@@ -2949,10 +2891,10 @@
     </row>
     <row r="128" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D128" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E128" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F128" t="s">
         <v>37</v>
@@ -2966,10 +2908,10 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D129" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E129" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="F129" t="s">
         <v>37</v>
@@ -2983,10 +2925,10 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D130" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E130" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="F130" t="s">
         <v>37</v>
@@ -3000,10 +2942,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D131" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E131" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="F131" t="s">
         <v>37</v>
@@ -3017,80 +2959,410 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D132" t="s">
+        <v>144</v>
+      </c>
+      <c r="E132" t="s">
+        <v>145</v>
+      </c>
+      <c r="F132" t="s">
+        <v>37</v>
+      </c>
+      <c r="G132" t="s">
+        <v>30</v>
+      </c>
+      <c r="H132" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D133" t="s">
+        <v>146</v>
+      </c>
+      <c r="E133" t="s">
+        <v>147</v>
+      </c>
+      <c r="F133" t="s">
+        <v>37</v>
+      </c>
+      <c r="G133" t="s">
+        <v>30</v>
+      </c>
+      <c r="H133" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D134" t="s">
+        <v>148</v>
+      </c>
+      <c r="E134" t="s">
+        <v>149</v>
+      </c>
+      <c r="F134" t="s">
+        <v>37</v>
+      </c>
+      <c r="G134" t="s">
+        <v>30</v>
+      </c>
+      <c r="H134" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D135" t="s">
+        <v>150</v>
+      </c>
+      <c r="E135" t="s">
+        <v>151</v>
+      </c>
+      <c r="F135" t="s">
+        <v>37</v>
+      </c>
+      <c r="G135" t="s">
+        <v>30</v>
+      </c>
+      <c r="H135" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D136" t="s">
+        <v>152</v>
+      </c>
+      <c r="E136" t="s">
+        <v>153</v>
+      </c>
+      <c r="F136" t="s">
+        <v>37</v>
+      </c>
+      <c r="G136" t="s">
+        <v>30</v>
+      </c>
+      <c r="H136" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D137" t="s">
+        <v>154</v>
+      </c>
+      <c r="E137" t="s">
+        <v>155</v>
+      </c>
+      <c r="F137" t="s">
+        <v>37</v>
+      </c>
+      <c r="G137" t="s">
+        <v>30</v>
+      </c>
+      <c r="H137" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D138" t="s">
+        <v>156</v>
+      </c>
+      <c r="E138" t="s">
+        <v>157</v>
+      </c>
+      <c r="F138" t="s">
+        <v>37</v>
+      </c>
+      <c r="G138" t="s">
+        <v>30</v>
+      </c>
+      <c r="H138" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D139" t="s">
+        <v>158</v>
+      </c>
+      <c r="E139" t="s">
+        <v>159</v>
+      </c>
+      <c r="F139" t="s">
+        <v>37</v>
+      </c>
+      <c r="G139" t="s">
+        <v>30</v>
+      </c>
+      <c r="H139" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D140" t="s">
         <v>160</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E140" t="s">
         <v>161</v>
       </c>
-      <c r="F132" t="s">
-        <v>37</v>
-      </c>
-      <c r="G132" t="s">
-        <v>30</v>
-      </c>
-      <c r="H132" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A135" t="s">
+      <c r="F140" t="s">
+        <v>37</v>
+      </c>
+      <c r="G140" t="s">
+        <v>30</v>
+      </c>
+      <c r="H140" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
         <v>258</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="D143" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E135" s="5" t="s">
+      <c r="E143" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F143" t="s">
         <v>261</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G143" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D136" s="5" t="s">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D144" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E136" s="5" t="s">
+      <c r="E144" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F144" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D137" s="5" t="s">
+    <row r="145" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D145" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E137" s="5" t="s">
+      <c r="E145" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F145" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D138" s="6" t="s">
+    <row r="146" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D146" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="E138" s="6" t="s">
+      <c r="E146" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F146" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D139" s="6" t="s">
+    <row r="147" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D147" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="E139" s="6" t="s">
+      <c r="E147" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F147" t="s">
         <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4">
+        <v>109</v>
+      </c>
+      <c r="F4">
+        <v>52</v>
+      </c>
+      <c r="G4">
+        <v>57</v>
+      </c>
+      <c r="H4">
+        <f>F4+G4</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5">
+        <v>1348</v>
+      </c>
+      <c r="F5">
+        <v>1107</v>
+      </c>
+      <c r="G5">
+        <v>241</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H10" si="0">F5+G5</f>
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6">
+        <v>1622</v>
+      </c>
+      <c r="F6">
+        <v>1050</v>
+      </c>
+      <c r="G6">
+        <v>572</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7">
+        <v>2488</v>
+      </c>
+      <c r="F7">
+        <v>1519</v>
+      </c>
+      <c r="G7">
+        <v>969</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8">
+        <v>1397</v>
+      </c>
+      <c r="F8">
+        <v>936</v>
+      </c>
+      <c r="G8">
+        <v>461</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9">
+        <v>74</v>
+      </c>
+      <c r="F9">
+        <v>47</v>
+      </c>
+      <c r="G9">
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10">
+        <v>9276</v>
+      </c>
+      <c r="F10">
+        <v>6501</v>
+      </c>
+      <c r="G10">
+        <v>2775</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>9276</v>
       </c>
     </row>
   </sheetData>

--- a/data/hsls/documentation/filter_varlist.xlsx
+++ b/data/hsls/documentation/filter_varlist.xlsx
@@ -1247,8 +1247,8 @@
   <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1684,10 +1684,10 @@
       <c r="C41" t="s">
         <v>18</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H41" t="s">

--- a/data/hsls/documentation/filter_varlist.xlsx
+++ b/data/hsls/documentation/filter_varlist.xlsx
@@ -1177,7 +1177,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
